--- a/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
+++ b/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -44,9 +40,6 @@
     <t>abcd</t>
   </si>
   <si>
-    <t>abcdefghijhkopldfgtyoiqsjkpighk</t>
-  </si>
-  <si>
     <t>abc13</t>
   </si>
   <si>
@@ -63,6 +56,24 @@
   </si>
   <si>
     <t>abcrgsf</t>
+  </si>
+  <si>
+    <t>abcdefghijhkopldfgtyoiqsjkpighkhj</t>
+  </si>
+  <si>
+    <t>BLAPC4224G</t>
+  </si>
+  <si>
+    <t>ghjfsgfg</t>
+  </si>
+  <si>
+    <t>fhty568fgj3</t>
+  </si>
+  <si>
+    <t>fsd%^%$h</t>
+  </si>
+  <si>
+    <t>BLAPC 4 22 4G</t>
   </si>
 </sst>
 </file>
@@ -98,7 +109,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -383,77 +395,120 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <v>1224552444</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
+++ b/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -73,7 +73,10 @@
     <t>fsd%^%$h</t>
   </si>
   <si>
-    <t>BLAPC 4 22 4G</t>
+    <t>2345675211'</t>
+  </si>
+  <si>
+    <t>BC TH98 TH</t>
   </si>
 </sst>
 </file>
@@ -109,9 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,13 +404,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
@@ -411,7 +420,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -428,7 +437,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1"/>
@@ -439,7 +448,7 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1"/>
@@ -450,7 +459,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1"/>
@@ -461,8 +470,8 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>1224552444</v>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -472,7 +481,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1"/>
@@ -483,8 +492,8 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -494,7 +503,6 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -503,12 +511,12 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
+++ b/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:I28"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>FirstName</t>
   </si>
@@ -77,16 +77,48 @@
   </si>
   <si>
     <t>BC TH98 TH</t>
+  </si>
+  <si>
+    <t>"05-May-1958"</t>
+  </si>
+  <si>
+    <t>"10-Dec-2019"</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>fjhg$%$vhf%^&amp;</t>
+  </si>
+  <si>
+    <t>1245785@gmail.com</t>
+  </si>
+  <si>
+    <t>A12345685@gmail.com</t>
+  </si>
+  <si>
+    <t>shivani</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,10 +141,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -121,8 +154,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,7 +440,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +448,7 @@
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -440,9 +476,15 @@
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8888888888</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -451,8 +493,12 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -463,7 +509,9 @@
         <v>15</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -474,7 +522,9 @@
         <v>17</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -485,7 +535,9 @@
         <v>16</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -496,7 +548,9 @@
         <v>18</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -516,7 +570,14 @@
       <c r="E9" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3" display="fjhg$%$vhf%^&amp;@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
+++ b/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17850" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>FirstName</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>shivani</t>
+  </si>
+  <si>
+    <t>985f8g9h9</t>
+  </si>
+  <si>
+    <t>gfhsdfdfhd</t>
+  </si>
+  <si>
+    <t>98$%&amp;84^6*</t>
+  </si>
+  <si>
+    <t>98 5 6 829</t>
   </si>
 </sst>
 </file>
@@ -437,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +511,9 @@
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>1239423597</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -512,7 +526,9 @@
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>8641256759</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -525,7 +541,9 @@
       <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>95985632145</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -538,7 +556,9 @@
       <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>968532568</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -551,7 +571,9 @@
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -559,7 +581,9 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -567,7 +591,14 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
+++ b/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>FirstName</t>
   </si>
@@ -113,6 +113,33 @@
   </si>
   <si>
     <t>98 5 6 829</t>
+  </si>
+  <si>
+    <t>KETKEE</t>
+  </si>
+  <si>
+    <t>CYIPS8165C</t>
+  </si>
+  <si>
+    <t>"04-DEC-1982"</t>
+  </si>
+  <si>
+    <t>KETKEE123@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>EJAPS0276M</t>
+  </si>
+  <si>
+    <t>"31-OCT-1992"</t>
+  </si>
+  <si>
+    <t>monikashinde@gmail.com</t>
+  </si>
+  <si>
+    <t>"  "</t>
   </si>
 </sst>
 </file>
@@ -157,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -168,6 +195,7 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -449,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,8 +624,60 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
       <c r="E10" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>9874563214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>7066985326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -607,8 +687,10 @@
     <hyperlink ref="D3" r:id="rId3" display="fjhg$%$vhf%^&amp;@gmail.com"/>
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D11" r:id="rId6"/>
+    <hyperlink ref="D12" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
+++ b/CAMS/src/test/resources/datastorage/createnewaccount.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17850" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17475" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I28"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>FirstName</t>
   </si>
@@ -140,6 +140,69 @@
   </si>
   <si>
     <t>"  "</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>GYVJK1265J</t>
+  </si>
+  <si>
+    <t>"12-APR-1991"</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>POOJAJOSHI</t>
+  </si>
+  <si>
+    <t>BHCFP7596K</t>
+  </si>
+  <si>
+    <t>"01-JAN-1960"</t>
+  </si>
+  <si>
+    <t>POOJAJAIN@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>MonikaP</t>
+  </si>
+  <si>
+    <t>NJMKG1234G</t>
+  </si>
+  <si>
+    <t>"30-DEC-1999"</t>
+  </si>
+  <si>
+    <t>MONAP@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>SHUBHAM</t>
+  </si>
+  <si>
+    <t>SHUNJ1452J</t>
+  </si>
+  <si>
+    <t>"30-JUN-1982"</t>
+  </si>
+  <si>
+    <t>SHUBHAM@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>SHARMAJI@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>AKSHAY</t>
+  </si>
+  <si>
+    <t>SHNJD4562W</t>
+  </si>
+  <si>
+    <t>"25-AUG-1994"</t>
+  </si>
+  <si>
+    <t>AKKU@GMAIL.COM</t>
   </si>
 </sst>
 </file>
@@ -477,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +555,7 @@
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +571,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -526,7 +592,7 @@
         <v>8888888888</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -543,7 +609,7 @@
         <v>1239423597</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -558,7 +624,7 @@
         <v>8641256759</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -573,7 +639,7 @@
         <v>95985632145</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,7 +654,7 @@
         <v>968532568</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -603,7 +669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -613,7 +679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -623,13 +689,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="E10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -646,7 +712,7 @@
         <v>9874563214</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -663,7 +729,7 @@
         <v>7066985326</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -678,6 +744,106 @@
       </c>
       <c r="E13" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>8965124756</v>
+      </c>
+      <c r="H14">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>7412365896</v>
+      </c>
+      <c r="H15">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>7496321586</v>
+      </c>
+      <c r="H16">
+        <v>745632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>8231568479</v>
+      </c>
+      <c r="H17">
+        <v>152364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>9632158645</v>
+      </c>
+      <c r="H18">
+        <v>230015</v>
       </c>
     </row>
   </sheetData>
@@ -689,8 +855,13 @@
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D11" r:id="rId6"/>
     <hyperlink ref="D12" r:id="rId7"/>
+    <hyperlink ref="D15" r:id="rId8"/>
+    <hyperlink ref="D16" r:id="rId9"/>
+    <hyperlink ref="D17" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D18" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>